--- a/BI/DMO/MonthlyProjectStatusReport_DMO_May2016.xlsx
+++ b/BI/DMO/MonthlyProjectStatusReport_DMO_May2016.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Innovation Lab\Status report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyProjectStatus" sheetId="1" r:id="rId1"/>
     <sheet name="ConsultantMatrix" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
-  </pivotCaches>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>Project ID</t>
   </si>
@@ -60,9 +52,6 @@
     <t>Training Needs</t>
   </si>
   <si>
-    <t>&lt;mention the pending needs and challenges if any&gt;</t>
-  </si>
-  <si>
     <t>PHI</t>
   </si>
   <si>
@@ -87,27 +76,15 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>The Project schedule is on track</t>
-  </si>
-  <si>
     <t>Resourcing</t>
   </si>
   <si>
-    <t>Resourcing is adequate</t>
-  </si>
-  <si>
     <t>Risks</t>
   </si>
   <si>
-    <t>All Risks are within control</t>
-  </si>
-  <si>
     <t>Issues</t>
   </si>
   <si>
-    <t>Project issues need attention</t>
-  </si>
-  <si>
     <t>Metrics</t>
   </si>
   <si>
@@ -196,15 +173,6 @@
   </si>
   <si>
     <t>G7</t>
-  </si>
-  <si>
-    <t>Count of Grade</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
   <si>
     <t>No. of consultant</t>
@@ -227,9 +195,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>Workflow  configuration in .net frame work</t>
   </si>
   <si>
     <t>Prasad Karkhanis</t>
@@ -246,9 +211,6 @@
 extreme flexibility to business users in handling the business rule at enforcing them into data validation process with minimal efforts</t>
   </si>
   <si>
-    <t>DMO- March 2016</t>
-  </si>
-  <si>
     <t>Actual:87</t>
   </si>
   <si>
@@ -258,10 +220,118 @@
     <t>Automaton-Release -2.2</t>
   </si>
   <si>
-    <t>DASEM Release -2.2</t>
-  </si>
-  <si>
-    <t>Java Hexarule</t>
+    <t>DMO- May 2016</t>
+  </si>
+  <si>
+    <t>Senthil Kumar k</t>
+  </si>
+  <si>
+    <t>Gopinath P</t>
+  </si>
+  <si>
+    <t>MuthuMani R</t>
+  </si>
+  <si>
+    <t>Nanthakumar thangavel</t>
+  </si>
+  <si>
+    <t>Rahul Mohanan</t>
+  </si>
+  <si>
+    <t>Sathya Murthy vis</t>
+  </si>
+  <si>
+    <t>Suganya</t>
+  </si>
+  <si>
+    <t>Suresh balusamy</t>
+  </si>
+  <si>
+    <t>Venkateshwaralu</t>
+  </si>
+  <si>
+    <t>Vishaka Deokar</t>
+  </si>
+  <si>
+    <t>Senthil kumar k</t>
+  </si>
+  <si>
+    <t>Muthuvel</t>
+  </si>
+  <si>
+    <t>Database Develper</t>
+  </si>
+  <si>
+    <t>Module Lead .net</t>
+  </si>
+  <si>
+    <t>.net Developer</t>
+  </si>
+  <si>
+    <t>Report Developer</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>SSIS - Architect</t>
+  </si>
+  <si>
+    <t>.SSIS Pentaho Develper</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Naga kishore</t>
+  </si>
+  <si>
+    <t>Oracle Developer</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>Sravana Kumari</t>
+  </si>
+  <si>
+    <t>Sr Software engineer</t>
+  </si>
+  <si>
+    <t>Replacement</t>
+  </si>
+  <si>
+    <t>Gopal Nayak</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Hexarule </t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Awaiting for Replacement profile</t>
+  </si>
+  <si>
+    <t>On Track</t>
+  </si>
+  <si>
+    <t>Replacement for Suganya (SSIS) , Naga (Java)</t>
+  </si>
+  <si>
+    <t>To be released, Waiting for replacement profile</t>
   </si>
   <si>
     <r>
@@ -286,7 +356,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Training Manual and Instruction Manual for each Module similar to Infagena nd Automaton</t>
+      <t xml:space="preserve">Training Manual and Instruction Manual for each Module similar to Infagena and Automaton - Completed </t>
     </r>
     <r>
       <rPr>
@@ -321,7 +391,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Including record count in Code Management Option
+Including record count in Code Management Option - Completed
 </t>
     </r>
     <r>
@@ -333,7 +403,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Automaton:</t>
+      <t>Automaton (Release 2.2):</t>
     </r>
     <r>
       <rPr>
@@ -344,10 +414,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-load excel  to be renamed as Data Management in Automaton with option of upload and Download
-Define Parament Value
-Data upload utility to support multiple file types
-Data Type Template
+load excel to be renamed as Data Management in Automaton with option of upload and Download - Completed
+Define Parameter Value - Completed
+Data upload utility to support multiple file types - Completed
+Data Type Template - Completed
 </t>
     </r>
     <r>
@@ -359,7 +429,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Hexarule:
+      <t xml:space="preserve">Hexarule (Release 2.2):
 </t>
     </r>
     <r>
@@ -370,7 +440,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Execution of HaxaRule process in Offline Mode
+      <t xml:space="preserve">Execution of HaxaRule process in Offline Mode - Completed
 </t>
     </r>
     <r>
@@ -394,9 +464,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Audit Process -Orchestration UI
-Audit Process -Workflow
-Process Orchestration -UI Chang
+      <t xml:space="preserve">Audit Process -Orchestration UI - Completed
+Audit Process -Workflow - Completed
+Process Orchestration -UI Chang - Completed
 </t>
     </r>
     <r>
@@ -420,8 +490,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Bug Fixes in Hexarule
-Home Page and Integration
+Bug Fixes in Hexarule - In progress
+Home Page and Integration - In progress
 Hexarule documentation
 </t>
     </r>
@@ -446,9 +516,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Xerox
-ICMA
-UCMS
+      <t xml:space="preserve">Xerox - In progress
+ICMA - Inprogress
+UCS Leasing - Completed
+Balayse - Inprogress
 </t>
     </r>
     <r>
@@ -472,10 +543,15 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Application  Code integration with GIT
-Java API building for Pentaho
-SSIS .Net skilled person to replace suganya</t>
+SSIS .Net skilled person to replace suganya
+Java Skilled profile to Replace Naga Kisore.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows work flow foundation </t>
+  </si>
+  <si>
+    <t>Open Requirement for SSIS Replacement profile, Java replacement profile - ASAP</t>
   </si>
 </sst>
 </file>
@@ -573,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +704,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="67">
     <border>
@@ -1460,17 +1542,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,8 +1588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1532,11 +1609,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1570,6 +1670,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,12 +1683,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,7 +1896,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$4</c:f>
+              <c:f>Pivot!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1838,12 +1938,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$4</c:f>
+              <c:f>Pivot!$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,7 +1954,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$5</c:f>
+              <c:f>Pivot!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1896,12 +1996,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$5</c:f>
+              <c:f>Pivot!$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,7 +2012,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$6</c:f>
+              <c:f>Pivot!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1954,12 +2054,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$6</c:f>
+              <c:f>Pivot!$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,7 +2070,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$7</c:f>
+              <c:f>Pivot!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2012,12 +2112,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$7</c:f>
+              <c:f>Pivot!$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,7 +2128,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$8</c:f>
+              <c:f>Pivot!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2089,12 +2189,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$8</c:f>
+              <c:f>Pivot!$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,7 +2205,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$9</c:f>
+              <c:f>Pivot!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2166,12 +2266,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$9</c:f>
+              <c:f>Pivot!$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,12 +2288,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="483055008"/>
-        <c:axId val="257996928"/>
+        <c:axId val="104465152"/>
+        <c:axId val="104466688"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="483055008"/>
+        <c:axId val="104465152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2303,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257996928"/>
+        <c:crossAx val="104466688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257996928"/>
+        <c:axId val="104466688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +2321,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483055008"/>
+        <c:crossAx val="104465152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2283,7 +2383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2312,7 +2411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$4</c:f>
+              <c:f>Pivot!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2354,12 +2453,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$4</c:f>
+              <c:f>Pivot!$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,7 +2469,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$5</c:f>
+              <c:f>Pivot!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2412,12 +2511,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$5</c:f>
+              <c:f>Pivot!$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,7 +2527,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$6</c:f>
+              <c:f>Pivot!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2470,12 +2569,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$6</c:f>
+              <c:f>Pivot!$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2486,7 +2585,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$7</c:f>
+              <c:f>Pivot!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2528,12 +2627,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$7</c:f>
+              <c:f>Pivot!$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,7 +2643,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$8</c:f>
+              <c:f>Pivot!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2605,12 +2704,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$8</c:f>
+              <c:f>Pivot!$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,7 +2720,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$E$9</c:f>
+              <c:f>Pivot!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2682,12 +2781,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$G$9</c:f>
+              <c:f>Pivot!$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,12 +2803,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="361285472"/>
-        <c:axId val="211981584"/>
+        <c:axId val="103955840"/>
+        <c:axId val="103982208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="361285472"/>
+        <c:axId val="103955840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2818,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211981584"/>
+        <c:crossAx val="103982208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211981584"/>
+        <c:axId val="103982208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,14 +2836,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361285472"/>
+        <c:crossAx val="103955840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2878,13 +2976,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>504823</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
@@ -2907,298 +3005,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Mohamed younus A" refreshedDate="42450.750070833332" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="17">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:H31" sheet="ConsultantMatrix"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Role" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Grade" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="G3"/>
-        <s v="G2"/>
-        <s v="G5"/>
-        <s v="G6"/>
-        <s v="G7"/>
-        <s v="G8"/>
-        <s v="G4"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="% Allocated" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Consultant Start Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Consultant Release Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Owning Unit" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Remarks" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="7"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Grade" fld="2" subtotal="count" baseField="0" baseItem="2683416"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3244,7 +3050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3279,7 +3085,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3490,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,705 +3311,709 @@
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
+      <c r="B4" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
+      <c r="C7" s="43">
+        <v>4327</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="102"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
+      <c r="C8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="44">
+        <v>42439</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="45">
+        <v>43100</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="55">
+        <v>91530</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="117"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="97"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="98"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="99"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="100"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="98"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="99"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="100"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="98"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="42">
+        <v>42521</v>
+      </c>
+      <c r="H42" s="42">
+        <v>42521</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="98"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="48">
-        <v>42439</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="49">
-        <v>43100</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="107"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="113"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="94"/>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="96"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="94"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="96"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="94"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="19" t="s">
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="42">
+        <v>42521</v>
+      </c>
+      <c r="H43" s="42">
+        <v>42521</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="42">
+        <v>42521</v>
+      </c>
+      <c r="H44" s="42">
+        <v>42521</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="42">
+        <v>42521</v>
+      </c>
+      <c r="H45" s="42">
+        <v>42521</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="84" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="50">
-        <v>42521</v>
-      </c>
-      <c r="H42" s="50">
-        <v>42521</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="50">
-        <v>42521</v>
-      </c>
-      <c r="H43" s="50">
-        <v>42521</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="50">
-        <v>42521</v>
-      </c>
-      <c r="H44" s="50">
-        <v>42521</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="50">
-        <v>42521</v>
-      </c>
-      <c r="H45" s="50">
-        <v>42521</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="80" t="s">
+      <c r="C48" s="94"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="90"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="84" t="s">
+      <c r="C49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="92"/>
+      <c r="G49" s="75">
+        <v>0</v>
+      </c>
+      <c r="H49" s="68"/>
+      <c r="I49" s="76"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="75">
+        <v>1</v>
+      </c>
+      <c r="H50" s="68"/>
+      <c r="I50" s="76"/>
+    </row>
+    <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="93"/>
+      <c r="G51" s="75">
+        <v>1</v>
+      </c>
+      <c r="H51" s="68"/>
+      <c r="I51" s="76"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="66"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="86"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="87" t="s">
+      <c r="F53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="71">
-        <v>1</v>
-      </c>
-      <c r="H49" s="67"/>
-      <c r="I49" s="72"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="32" t="s">
+      <c r="H53" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="71">
-        <v>1</v>
-      </c>
-      <c r="H50" s="67"/>
-      <c r="I50" s="72"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="71">
-        <v>1</v>
-      </c>
-      <c r="H51" s="67"/>
-      <c r="I51" s="72"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="61" t="s">
+      <c r="I53" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="62"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="33" t="s">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="C56" s="82"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="83"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="I53" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="79"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="80"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -4255,11 +4065,13 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
@@ -4270,122 +4082,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="A1" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="35">
+        <v>100</v>
+      </c>
+      <c r="E3" s="46">
+        <v>42415</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="35">
+        <v>100</v>
+      </c>
+      <c r="E4" s="46">
+        <v>42324</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="35">
+        <v>100</v>
+      </c>
+      <c r="E5" s="46">
+        <v>42339</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D6" s="35">
+        <v>100</v>
+      </c>
+      <c r="E6" s="46">
+        <v>42324</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="50">
+        <v>100</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="35">
+        <v>100</v>
+      </c>
+      <c r="E8" s="46">
+        <v>42412</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D9" s="35">
+        <v>100</v>
+      </c>
+      <c r="E9" s="46">
+        <v>42370</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="50">
+        <v>100</v>
+      </c>
+      <c r="E10" s="51">
+        <v>42370</v>
+      </c>
+      <c r="F10" s="51">
+        <v>42521</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="35">
+        <v>100</v>
+      </c>
+      <c r="E11" s="46">
+        <v>42461</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="35">
+        <v>100</v>
+      </c>
+      <c r="E12" s="46">
+        <v>42506</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="46">
+        <v>42522</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="50">
+        <v>100</v>
+      </c>
+      <c r="F14" s="51">
+        <v>42521</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="53">
+        <v>100</v>
+      </c>
+      <c r="E15" s="54">
+        <v>42466</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="50">
+        <v>100</v>
+      </c>
+      <c r="E16" s="51">
+        <v>42370</v>
+      </c>
+      <c r="F16" s="51">
+        <v>42521</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="46">
+        <v>42527</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="50">
+        <v>100</v>
+      </c>
+      <c r="F18" s="51">
+        <v>42503</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4398,183 +4474,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G12"/>
+  <dimension ref="C3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="38">
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="38">
+        <v>2</v>
+      </c>
+      <c r="E4" s="39">
+        <f>D4/(SUM($D$4:$D$12))</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="38">
+        <v>3</v>
+      </c>
+      <c r="E5" s="39">
+        <f t="shared" ref="E5:E11" si="0">D5/(SUM($D$4:$D$12))</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="38">
         <v>1</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="43">
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="38">
+        <v>4</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="38">
         <v>2</v>
       </c>
-      <c r="G4" s="44">
-        <f>F4/(SUM($F$4:$F$12))</f>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="38">
-        <v>6</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="43">
-        <v>4</v>
-      </c>
-      <c r="G5" s="44">
-        <f t="shared" ref="G5:G11" si="0">F5/(SUM($F$4:$F$12))</f>
-        <v>0.26666666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="38">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="44">
+      <c r="E9" s="39">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="38">
-        <v>2</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="43">
-        <v>4</v>
-      </c>
-      <c r="G7" s="44">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="38">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="38">
-        <v>2</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="43">
-        <v>2</v>
-      </c>
-      <c r="G9" s="44">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="38">
-        <v>3</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="43">
+      <c r="D10" s="38">
         <v>0</v>
       </c>
-      <c r="G10" s="44">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="38">
-        <v>16</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="42"/>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>